--- a/data/ProjectPairsIncludedByPM.xlsx
+++ b/data/ProjectPairsIncludedByPM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\MasseyReadings\Masters\masters\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA00381-F982-48E6-9B40-4B81065E1D77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461C2D5E-0C20-4F79-8F7E-E99ECADECCDC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{40C7EACB-2B34-480D-9586-89DA186ECD23}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{40C7EACB-2B34-480D-9586-89DA186ECD23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,6 +896,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>SUM(B2:B18)</f>
+        <v>590933</v>
+      </c>
       <c r="F19">
         <f>SUM(F2:F18)</f>
         <v>4273808</v>
